--- a/weo_data_dirty_reshape.xlsx
+++ b/weo_data_dirty_reshape.xlsx
@@ -78,13 +78,13 @@
     <t>SubjectDescriptor</t>
   </si>
   <si>
-    <t>GDP_PC</t>
+    <t>gdpPercap</t>
   </si>
   <si>
-    <t>Unemployment rate</t>
+    <t>ue_rate</t>
   </si>
   <si>
-    <t>Population</t>
+    <t>pop</t>
   </si>
   <si>
     <t>y1980</t>
